--- a/WindowsFormsApplication1/results.xlsx
+++ b/WindowsFormsApplication1/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\WindowsFormsApplication1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnusl\source\repos\Vaulting\WindowsFormsApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B0F99E-AAC1-4289-ABCD-A81427899FFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4005CC75-849E-49B5-866A-410220B8841F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" tabRatio="741" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultTemplate" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,14 @@
     <definedName name="ekipage" localSheetId="4">'GTK3'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="3">'GTK4'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="0">ResultTemplate!$A$7:$O$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'GK1'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'GK2'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'GK3'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">GKGK4!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'GKM3'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'GTK3'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'GTK4'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ResultTemplate!$1:$6</definedName>
     <definedName name="results" localSheetId="7">'GK1'!$H$7:$K$10</definedName>
     <definedName name="results" localSheetId="6">'GK2'!$H$7:$K$10</definedName>
     <definedName name="results" localSheetId="2">'GK3'!$H$7:$K$10</definedName>
@@ -87,14 +95,6 @@
     <definedName name="round4" localSheetId="4">'GTK3'!$G$5</definedName>
     <definedName name="round4" localSheetId="3">'GTK4'!$G$5</definedName>
     <definedName name="round4" localSheetId="0">ResultTemplate!$G$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'GK1'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'GK2'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'GK3'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">GKGK4!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'GKM3'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'GTK3'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'GTK4'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ResultTemplate!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1755,7 +1755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2056,7 +2056,7 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2788,7 +2788,7 @@
       <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O10" xr:uid="{3B38FB1C-B0DE-4A6F-AD21-320C084B5A9D}">
       <formula1>0</formula1>
       <formula2>10</formula2>
@@ -2801,10 +2801,9 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;14
+    <oddHeader xml:space="preserve">&amp;C&amp;14
 </oddHeader>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3188,7 +3187,7 @@
       <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Illegal input value" error="Please enter a value between 0 and 10" sqref="H7:N10" xr:uid="{448DEB07-34DF-41EB-8CCF-3D3D0D02537B}">
       <formula1>-0.000001</formula1>
       <formula2>10</formula2>
@@ -3201,13 +3200,12 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;14
+    <oddHeader xml:space="preserve">&amp;C&amp;14
 </oddHeader>
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="K7" formulaRange="1"/>
   </ignoredErrors>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3579,7 +3577,7 @@
       <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O10" xr:uid="{12AAEA63-8874-4476-A6E6-A828BC6FDF4B}">
       <formula1>0</formula1>
       <formula2>10</formula2>
@@ -3592,10 +3590,9 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;14
+    <oddHeader xml:space="preserve">&amp;C&amp;14
 </oddHeader>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3979,7 +3976,7 @@
       <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Illegal input value" error="Please enter a value between 0 and 10" sqref="H7:N10" xr:uid="{A64DBD9C-BA0F-426B-8894-30B1DBC43037}">
       <formula1>-0.000001</formula1>
       <formula2>10</formula2>
@@ -3992,13 +3989,12 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;14
+    <oddHeader xml:space="preserve">&amp;C&amp;14
 </oddHeader>
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="K7" formulaRange="1"/>
   </ignoredErrors>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4010,7 +4006,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:K10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4350,7 +4346,7 @@
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O10" xr:uid="{1C0D64D1-EDF5-48D9-8A7D-22CF1D96EF3E}">
       <formula1>0</formula1>
       <formula2>10</formula2>
@@ -4363,10 +4359,9 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;14
+    <oddHeader xml:space="preserve">&amp;C&amp;14
 </oddHeader>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4718,7 +4713,7 @@
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Illegal input value" error="Please enter a value between 0 and 10" sqref="H7:N10" xr:uid="{7A4BA965-6255-4CD3-B17D-DE047DF19C22}">
       <formula1>-0.000001</formula1>
       <formula2>10</formula2>
@@ -4731,10 +4726,9 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;14
+    <oddHeader xml:space="preserve">&amp;C&amp;14
 </oddHeader>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4745,7 +4739,7 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -5099,9 +5093,8 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;14
+    <oddHeader xml:space="preserve">&amp;C&amp;14
 </oddHeader>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
--- a/WindowsFormsApplication1/results.xlsx
+++ b/WindowsFormsApplication1/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnusl\source\repos\Vaulting\WindowsFormsApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4005CC75-849E-49B5-866A-410220B8841F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F03E21-938D-4FD6-9E10-9D486CE5E61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" tabRatio="741" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="741" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultTemplate" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,6 @@
     <definedName name="ekipage" localSheetId="4">'GTK3'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="3">'GTK4'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="0">ResultTemplate!$A$7:$O$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'GK1'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'GK2'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'GK3'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">GKGK4!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'GKM3'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'GTK3'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'GTK4'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ResultTemplate!$1:$6</definedName>
     <definedName name="results" localSheetId="7">'GK1'!$H$7:$K$10</definedName>
     <definedName name="results" localSheetId="6">'GK2'!$H$7:$K$10</definedName>
     <definedName name="results" localSheetId="2">'GK3'!$H$7:$K$10</definedName>
@@ -95,8 +87,16 @@
     <definedName name="round4" localSheetId="4">'GTK3'!$G$5</definedName>
     <definedName name="round4" localSheetId="3">'GTK4'!$G$5</definedName>
     <definedName name="round4" localSheetId="0">ResultTemplate!$G$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'GK1'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'GK2'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'GK3'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">GKGK4!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'GKM3'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'GTK3'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'GTK4'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ResultTemplate!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,6 +104,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -627,9 +632,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,9 +995,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,9 +1190,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1393,6 +1389,15 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1755,7 +1760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2057,309 +2062,309 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="83" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="83" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="135" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="83" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="83" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="83" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="83" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.625" style="83" customWidth="1"/>
-    <col min="16" max="86" width="10.625" style="83" customWidth="1"/>
-    <col min="87" max="16384" width="10.625" style="83"/>
+    <col min="1" max="1" width="10.625" style="82" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="82" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="134" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="82" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="82" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="82" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="82" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="82" customWidth="1"/>
+    <col min="16" max="86" width="10.625" style="82" customWidth="1"/>
+    <col min="87" max="16384" width="10.625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="79" t="s">
+      <c r="A1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="82"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90" t="s">
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="87" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="90" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92" t="s">
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="106"/>
     </row>
     <row r="6" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="115"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="116">
+      <c r="A7" s="115">
         <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$234)/4+1+SUMPRODUCT(-(-($N$7:$N$234=N7)),-(-(O7&lt;$O$7:$O$234)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="116">
         <v>27</v>
       </c>
-      <c r="C7" s="117">
+      <c r="C7" s="116">
         <v>1</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="120" t="str">
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="119" t="str">
         <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
         <v/>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122">
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="121">
         <f>IF(COUNTBLANK(H7:K7)=0,AVERAGE(H7:K7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M7" s="123">
+      <c r="M7" s="122">
         <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="123">
+      <c r="N7" s="122">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="124">
+      <c r="O7" s="123">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="125">
+      <c r="A8" s="124">
         <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$234)/4+1+SUMPRODUCT(-(-($N$7:$N$234=N8)),-(-(O8&lt;$O$7:$O$234)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>27</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="82">
         <v>2</v>
       </c>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128" t="s">
+      <c r="E8" s="126"/>
+      <c r="F8" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="129" t="str">
+      <c r="G8" s="128" t="str">
         <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
         <v/>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131">
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="130">
         <f>IF(COUNTBLANK(H8:K8)=0,AVERAGE(H8:K8),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M8" s="123">
+      <c r="M8" s="122">
         <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="132">
+      <c r="N8" s="131">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="133">
+      <c r="O8" s="132">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="134">
+      <c r="A9" s="133">
         <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$234)/4+1+SUMPRODUCT(-(-($N$7:$N$234=N9)),-(-(O9&lt;$O$7:$O$234)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="82">
         <v>27</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="82">
         <v>3</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="127"/>
-      <c r="F9" s="83" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="129" t="str">
+      <c r="G9" s="128" t="str">
         <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
         <v/>
       </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="131">
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="130">
         <f>IF(COUNTBLANK(H9:K9)=0,AVERAGE(H9:K9),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M9" s="123">
+      <c r="M9" s="122">
         <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="132">
+      <c r="N9" s="131">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="136">
+      <c r="O9" s="135">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="137">
+      <c r="A10" s="136">
         <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$234)/4+1+SUMPRODUCT(-(-($N$7:$N$234=N10)),-(-(O10&lt;$O$7:$O$234)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="113">
+      <c r="B10" s="112">
         <v>27</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="112">
         <v>4</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="138" t="str">
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="137" t="str">
         <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
         <v/>
       </c>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="140">
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="139">
         <f>IF(COUNTBLANK(H10:K10)=0,AVERAGE(H10:K10),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M10" s="123">
+      <c r="M10" s="122">
         <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="141">
+      <c r="N10" s="140">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="142">
+      <c r="O10" s="141">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
@@ -2428,309 +2433,309 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="230" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="230" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="282" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="230" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="230" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="230" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="230" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.625" style="230" customWidth="1"/>
-    <col min="16" max="86" width="10.625" style="230" customWidth="1"/>
-    <col min="87" max="16384" width="10.625" style="230"/>
+    <col min="1" max="1" width="10.625" style="227" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="227" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="279" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="227" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="227" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="227" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="227" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="227" customWidth="1"/>
+    <col min="16" max="86" width="10.625" style="227" customWidth="1"/>
+    <col min="87" max="16384" width="10.625" style="227"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219"/>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="226" t="s">
+      <c r="A1" s="217"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="226" t="s">
+      <c r="J1" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="227"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="229"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="226"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="233"/>
-      <c r="F2" s="234" t="s">
+      <c r="E2" s="230"/>
+      <c r="F2" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="237" t="s">
+      <c r="G2" s="232"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="239"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="236"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="240"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="242" t="s">
+      <c r="A3" s="237"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="243"/>
-      <c r="F3" s="234" t="s">
+      <c r="E3" s="240"/>
+      <c r="F3" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="237" t="s">
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="239" t="s">
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="236" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="240"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="238"/>
-      <c r="N4" s="238"/>
-      <c r="O4" s="239"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="236"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="246"/>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="253"/>
-      <c r="O5" s="254"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="251"/>
     </row>
     <row r="6" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="255"/>
-      <c r="B6" s="256"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="257"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="259"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="262"/>
+      <c r="A6" s="252"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="259"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="263">
+      <c r="A7" s="260">
         <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N7)),-(-(O7&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="264">
+      <c r="B7" s="261">
         <v>27</v>
       </c>
-      <c r="C7" s="264">
+      <c r="C7" s="261">
         <v>1</v>
       </c>
-      <c r="D7" s="265"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="267" t="str">
+      <c r="D7" s="262"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="264" t="str">
         <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
         <v/>
       </c>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="268"/>
-      <c r="K7" s="269"/>
-      <c r="L7" s="290">
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
+      <c r="K7" s="266"/>
+      <c r="L7" s="287">
         <f>IF(COUNTBLANK(H7:K7)=0,AVERAGE(H7:K7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M7" s="270">
+      <c r="M7" s="267">
         <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="270">
+      <c r="N7" s="267">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="271">
+      <c r="O7" s="268">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="272">
+      <c r="A8" s="269">
         <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N8)),-(-(O8&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="230">
+      <c r="B8" s="227">
         <v>27</v>
       </c>
-      <c r="C8" s="230">
+      <c r="C8" s="227">
         <v>2</v>
       </c>
-      <c r="D8" s="273" t="s">
+      <c r="D8" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="274"/>
-      <c r="F8" s="275" t="s">
+      <c r="E8" s="271"/>
+      <c r="F8" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="293" t="str">
+      <c r="G8" s="290" t="str">
         <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
         <v/>
       </c>
-      <c r="H8" s="277"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="277"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="291">
+      <c r="H8" s="274"/>
+      <c r="I8" s="274"/>
+      <c r="J8" s="274"/>
+      <c r="K8" s="275"/>
+      <c r="L8" s="288">
         <f>IF(COUNTBLANK(H8:K8)=0,AVERAGE(H8:K8),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M8" s="270">
+      <c r="M8" s="267">
         <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="279">
+      <c r="N8" s="276">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="280">
+      <c r="O8" s="277">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="281">
+      <c r="A9" s="278">
         <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N9)),-(-(O9&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="230">
+      <c r="B9" s="227">
         <v>27</v>
       </c>
-      <c r="C9" s="230">
+      <c r="C9" s="227">
         <v>3</v>
       </c>
-      <c r="D9" s="282" t="s">
+      <c r="D9" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="274"/>
-      <c r="F9" s="230" t="s">
+      <c r="E9" s="271"/>
+      <c r="F9" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="276" t="str">
+      <c r="G9" s="273" t="str">
         <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
         <v/>
       </c>
-      <c r="H9" s="277"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="277"/>
-      <c r="K9" s="278"/>
-      <c r="L9" s="291">
+      <c r="H9" s="274"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="288">
         <f>IF(COUNTBLANK(H9:K9)=0,AVERAGE(H9:K9),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M9" s="270">
+      <c r="M9" s="267">
         <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="279">
+      <c r="N9" s="276">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="283">
+      <c r="O9" s="280">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="284">
+      <c r="A10" s="281">
         <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N10)),-(-(O10&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="260">
+      <c r="B10" s="257">
         <v>27</v>
       </c>
-      <c r="C10" s="260">
+      <c r="C10" s="257">
         <v>4</v>
       </c>
-      <c r="D10" s="257"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="285" t="str">
+      <c r="D10" s="254"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="257"/>
+      <c r="G10" s="282" t="str">
         <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
         <v/>
       </c>
-      <c r="H10" s="286"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="286"/>
-      <c r="K10" s="287"/>
-      <c r="L10" s="292">
+      <c r="H10" s="283"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="283"/>
+      <c r="K10" s="284"/>
+      <c r="L10" s="289">
         <f>IF(COUNTBLANK(H10:K10)=0,AVERAGE(H10:K10),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M10" s="270">
+      <c r="M10" s="267">
         <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="288">
+      <c r="N10" s="285">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="289">
+      <c r="O10" s="286">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
@@ -2815,321 +2820,321 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="230" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="230" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="282" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="230" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="230" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="230" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="230" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.625" style="230" customWidth="1"/>
-    <col min="16" max="86" width="10.625" style="230" customWidth="1"/>
-    <col min="87" max="16384" width="10.625" style="230"/>
+    <col min="1" max="1" width="10.625" style="227" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="227" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="279" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="227" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="227" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="227" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="227" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="227" customWidth="1"/>
+    <col min="16" max="86" width="10.625" style="227" customWidth="1"/>
+    <col min="87" max="16384" width="10.625" style="227"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="219"/>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="226" t="s">
+      <c r="A1" s="217"/>
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="226" t="s">
+      <c r="J1" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="227"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="229"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="226"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="233"/>
-      <c r="F2" s="234" t="s">
+      <c r="E2" s="230"/>
+      <c r="F2" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="235"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="237" t="s">
+      <c r="G2" s="232"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="239"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="236"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="240"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="242" t="s">
+      <c r="A3" s="237"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="243"/>
-      <c r="F3" s="234" t="s">
+      <c r="E3" s="240"/>
+      <c r="F3" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="237" t="s">
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="239" t="s">
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="236" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="240"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="238"/>
-      <c r="N4" s="238"/>
-      <c r="O4" s="239"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="238"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="236"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="246"/>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="251"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="253"/>
-      <c r="O5" s="254"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="251"/>
     </row>
     <row r="6" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="255"/>
-      <c r="B6" s="256"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="257"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="259"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="262"/>
+      <c r="A6" s="252"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="259"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="263">
+      <c r="A7" s="260">
         <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N7)),-(-(O7&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="264">
+      <c r="B7" s="261">
         <v>27</v>
       </c>
-      <c r="C7" s="264">
+      <c r="C7" s="261">
         <v>1</v>
       </c>
-      <c r="D7" s="265"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="267" t="str">
+      <c r="D7" s="262"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="264" t="str">
         <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
         <v/>
       </c>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="268"/>
-      <c r="K7" s="269">
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
+      <c r="K7" s="266">
         <f>IF(AND(COUNTBLANK(G7:G7)=0,COUNTBLANK(I7:J7)=0),AVERAGE(I7:J7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="L7" s="290">
+      <c r="L7" s="287">
         <f>IF(COUNTBLANK(H7:K7)=0,AVERAGE(H7:K7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M7" s="270">
+      <c r="M7" s="267">
         <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="270">
+      <c r="N7" s="267">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="271">
+      <c r="O7" s="268">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="272">
+      <c r="A8" s="269">
         <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N8)),-(-(O8&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="230">
+      <c r="B8" s="227">
         <v>27</v>
       </c>
-      <c r="C8" s="230">
+      <c r="C8" s="227">
         <v>2</v>
       </c>
-      <c r="D8" s="273" t="s">
+      <c r="D8" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="274"/>
-      <c r="F8" s="275" t="s">
+      <c r="E8" s="271"/>
+      <c r="F8" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="293" t="str">
+      <c r="G8" s="290" t="str">
         <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
         <v/>
       </c>
-      <c r="H8" s="277"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="277"/>
-      <c r="K8" s="278">
+      <c r="H8" s="274"/>
+      <c r="I8" s="274"/>
+      <c r="J8" s="274"/>
+      <c r="K8" s="275">
         <f>IF(AND(COUNTBLANK(G8:G8)=0,COUNTBLANK(I8:I8)=0),I8,-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="L8" s="291">
+      <c r="L8" s="288">
         <f>IF(COUNTBLANK(H8:K8)=0,AVERAGE(H8:K8),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M8" s="270">
+      <c r="M8" s="267">
         <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="279">
+      <c r="N8" s="276">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="280">
+      <c r="O8" s="277">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="281">
+      <c r="A9" s="278">
         <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N9)),-(-(O9&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="230">
+      <c r="B9" s="227">
         <v>27</v>
       </c>
-      <c r="C9" s="230">
+      <c r="C9" s="227">
         <v>3</v>
       </c>
-      <c r="D9" s="282" t="s">
+      <c r="D9" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="274"/>
-      <c r="F9" s="230" t="s">
+      <c r="E9" s="271"/>
+      <c r="F9" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="276" t="str">
+      <c r="G9" s="273" t="str">
         <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
         <v/>
       </c>
-      <c r="H9" s="277"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="277"/>
-      <c r="K9" s="278">
+      <c r="H9" s="274"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="275">
         <f>IF(AND(COUNTBLANK(G9:G9)=0,COUNTBLANK(I9:I9)=0),I9,-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="L9" s="291">
+      <c r="L9" s="288">
         <f>IF(COUNTBLANK(H9:K9)=0,AVERAGE(H9:K9),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M9" s="270">
+      <c r="M9" s="267">
         <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="279">
+      <c r="N9" s="276">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="283">
+      <c r="O9" s="280">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="284">
+      <c r="A10" s="281">
         <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N10)),-(-(O10&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="260">
+      <c r="B10" s="257">
         <v>27</v>
       </c>
-      <c r="C10" s="260">
+      <c r="C10" s="257">
         <v>4</v>
       </c>
-      <c r="D10" s="257"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="285" t="str">
+      <c r="D10" s="254"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="257"/>
+      <c r="G10" s="282" t="str">
         <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
         <v/>
       </c>
-      <c r="H10" s="286"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="286"/>
-      <c r="K10" s="287">
+      <c r="H10" s="283"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="283"/>
+      <c r="K10" s="284">
         <f>IF(AND(COUNTBLANK(G10:G10)=0,COUNTBLANK(I10:I10)=0),I10,-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="L10" s="292">
+      <c r="L10" s="289">
         <f>IF(COUNTBLANK(H10:K10)=0,AVERAGE(H10:K10),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M10" s="270">
+      <c r="M10" s="267">
         <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="288">
+      <c r="N10" s="285">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="289">
+      <c r="O10" s="286">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
@@ -3187,7 +3192,7 @@
       <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Illegal input value" error="Please enter a value between 0 and 10" sqref="H7:N10" xr:uid="{448DEB07-34DF-41EB-8CCF-3D3D0D02537B}">
       <formula1>-0.000001</formula1>
       <formula2>10</formula2>
@@ -3217,21 +3222,21 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="12" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="12" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="12" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="12" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.625" style="12" customWidth="1"/>
-    <col min="16" max="86" width="10.625" style="12" customWidth="1"/>
-    <col min="87" max="16384" width="10.625" style="12"/>
+    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="11" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="11" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="11" customWidth="1"/>
+    <col min="16" max="86" width="10.625" style="11" customWidth="1"/>
+    <col min="87" max="16384" width="10.625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3241,285 +3246,285 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="299"/>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N7)),-(-(O7&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>27</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="49" t="str">
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="48" t="str">
         <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
         <v/>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="294">
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="291">
         <f>IF(COUNTBLANK(H7:K7)=0,AVERAGE(H7:K7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="50">
         <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="50">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="51">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+      <c r="A8" s="52">
         <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N8)),-(-(O8&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>27</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="57" t="str">
+      <c r="G8" s="56" t="str">
         <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
         <v/>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="295">
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="292">
         <f>IF(COUNTBLANK(H8:K8)=0,AVERAGE(H8:K8),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="50">
         <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="58">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="60">
+      <c r="O8" s="59">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
+      <c r="A9" s="60">
         <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N9)),-(-(O9&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>27</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="57" t="str">
+      <c r="G9" s="56" t="str">
         <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
         <v/>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="295">
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="292">
         <f>IF(COUNTBLANK(H9:K9)=0,AVERAGE(H9:K9),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="50">
         <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="58">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="62">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
+      <c r="A10" s="63">
         <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N10)),-(-(O10&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <v>27</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>4</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="65" t="str">
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="64" t="str">
         <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
         <v/>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="296">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="293">
         <f>IF(COUNTBLANK(H10:K10)=0,AVERAGE(H10:K10),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="50">
         <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="67">
+      <c r="N10" s="66">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="67">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
@@ -3577,7 +3582,7 @@
       <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O10" xr:uid="{12AAEA63-8874-4476-A6E6-A828BC6FDF4B}">
       <formula1>0</formula1>
       <formula2>10</formula2>
@@ -3604,21 +3609,21 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="12" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="12" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="12" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="12" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.625" style="12" customWidth="1"/>
-    <col min="16" max="86" width="10.625" style="12" customWidth="1"/>
-    <col min="87" max="16384" width="10.625" style="12"/>
+    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="11" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="11" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="11" customWidth="1"/>
+    <col min="16" max="86" width="10.625" style="11" customWidth="1"/>
+    <col min="87" max="16384" width="10.625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3628,297 +3633,297 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="299"/>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N7)),-(-(O7&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>27</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="49" t="str">
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="48" t="str">
         <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
         <v/>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="69">
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="68">
         <f>IF(AND(COUNTBLANK(G7:G7)=0,COUNTBLANK(I7:J7)=0),AVERAGE(I7:J7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="L7" s="294">
+      <c r="L7" s="291">
         <f>IF(COUNTBLANK(H7:K7)=0,AVERAGE(H7:K7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="50">
         <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="50">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="51">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+      <c r="A8" s="52">
         <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N8)),-(-(O8&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>27</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="57" t="str">
+      <c r="G8" s="56" t="str">
         <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
         <v/>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="70">
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="69">
         <f>IF(AND(COUNTBLANK(G8:G8)=0,COUNTBLANK(I8:I8)=0),I8,-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="L8" s="295">
+      <c r="L8" s="292">
         <f>IF(COUNTBLANK(H8:K8)=0,AVERAGE(H8:K8),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="50">
         <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="58">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="60">
+      <c r="O8" s="59">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="61">
+      <c r="A9" s="60">
         <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N9)),-(-(O9&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>27</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="54"/>
+      <c r="F9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="57" t="str">
+      <c r="G9" s="56" t="str">
         <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
         <v/>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="70">
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="69">
         <f>IF(AND(COUNTBLANK(G9:G9)=0,COUNTBLANK(I9:I9)=0),I9,-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="L9" s="295">
+      <c r="L9" s="292">
         <f>IF(COUNTBLANK(H9:K9)=0,AVERAGE(H9:K9),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="50">
         <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="58">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="62">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
+      <c r="A10" s="63">
         <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N10)),-(-(O10&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <v>27</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>4</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="65" t="str">
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="64" t="str">
         <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
         <v/>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="71">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="70">
         <f>IF(AND(COUNTBLANK(G10:G10)=0,COUNTBLANK(I10:I10)=0),I10,-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="L10" s="296">
+      <c r="L10" s="293">
         <f>IF(COUNTBLANK(H10:K10)=0,AVERAGE(H10:K10),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="50">
         <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="67">
+      <c r="N10" s="66">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="67">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
@@ -3976,7 +3981,7 @@
       <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Illegal input value" error="Please enter a value between 0 and 10" sqref="H7:N10" xr:uid="{A64DBD9C-BA0F-426B-8894-30B1DBC43037}">
       <formula1>-0.000001</formula1>
       <formula2>10</formula2>
@@ -4006,309 +4011,309 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="154" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="154" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="208" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="154" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="154" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="154" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="154" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.625" style="154" customWidth="1"/>
-    <col min="16" max="86" width="10.625" style="154" customWidth="1"/>
-    <col min="87" max="16384" width="10.625" style="154"/>
+    <col min="1" max="1" width="10.625" style="152" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="152" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="206" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="152" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="152" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="152" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="152" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="152" customWidth="1"/>
+    <col min="16" max="86" width="10.625" style="152" customWidth="1"/>
+    <col min="87" max="16384" width="10.625" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143"/>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="150" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="150" t="s">
+      <c r="K1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="151"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="153"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161" t="s">
+      <c r="G2" s="157"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="163"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="161"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="166" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="158" t="s">
+      <c r="E3" s="165"/>
+      <c r="F3" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="161" t="s">
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="163" t="s">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="161" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="163"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="161"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="178"/>
+      <c r="A5" s="168"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="176"/>
     </row>
     <row r="6" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="186"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="184"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="187">
+      <c r="A7" s="185">
         <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N7)),-(-(O7&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="188">
+      <c r="B7" s="186">
         <v>27</v>
       </c>
-      <c r="C7" s="188">
+      <c r="C7" s="186">
         <v>1</v>
       </c>
-      <c r="D7" s="189"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="191" t="str">
+      <c r="D7" s="187"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="189" t="str">
         <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
         <v/>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="297">
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="297"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="294">
         <f>IF(COUNTBLANK(H7:J7)=0,AVERAGE(H7:J7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M7" s="195">
+      <c r="M7" s="193">
         <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="195">
+      <c r="N7" s="193">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="196">
+      <c r="O7" s="194">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="197">
+      <c r="A8" s="195">
         <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N8)),-(-(O8&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="154">
+      <c r="B8" s="152">
         <v>27</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="152">
         <v>2</v>
       </c>
-      <c r="D8" s="198" t="s">
+      <c r="D8" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="199"/>
-      <c r="F8" s="200" t="s">
+      <c r="E8" s="197"/>
+      <c r="F8" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="201" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
         <v/>
       </c>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="298">
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="295">
         <f>IF(COUNTBLANK(H8:J8)=0,AVERAGE(H8:J8),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M8" s="195">
+      <c r="M8" s="193">
         <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="205">
+      <c r="N8" s="203">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="206">
+      <c r="O8" s="204">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="207">
+      <c r="A9" s="205">
         <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N9)),-(-(O9&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="154">
+      <c r="B9" s="152">
         <v>27</v>
       </c>
-      <c r="C9" s="154">
+      <c r="C9" s="152">
         <v>3</v>
       </c>
-      <c r="D9" s="208" t="s">
+      <c r="D9" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="199"/>
-      <c r="F9" s="154" t="s">
+      <c r="E9" s="197"/>
+      <c r="F9" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="201" t="str">
+      <c r="G9" s="199" t="str">
         <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
         <v/>
       </c>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="298">
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="295">
         <f>IF(COUNTBLANK(H9:K9)=0,AVERAGE(H9:K9),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M9" s="195">
+      <c r="M9" s="193">
         <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="205">
+      <c r="N9" s="203">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="211">
+      <c r="O9" s="209">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="212">
+      <c r="A10" s="210">
         <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N10)),-(-(O10&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="184">
+      <c r="B10" s="182">
         <v>27</v>
       </c>
-      <c r="C10" s="184">
+      <c r="C10" s="182">
         <v>4</v>
       </c>
-      <c r="D10" s="181"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="213" t="str">
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="211" t="str">
         <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
         <v/>
       </c>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="299">
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="296">
         <f>IF(COUNTBLANK(H10:K10)=0,AVERAGE(H10:K10),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M10" s="195">
+      <c r="M10" s="193">
         <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="217">
+      <c r="N10" s="215">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="218">
+      <c r="O10" s="216">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
@@ -4373,309 +4378,309 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="154" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="154" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="208" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="154" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="154" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="154" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="154" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.625" style="154" customWidth="1"/>
-    <col min="16" max="86" width="10.625" style="154" customWidth="1"/>
-    <col min="87" max="16384" width="10.625" style="154"/>
+    <col min="1" max="1" width="10.625" style="152" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="152" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="206" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="152" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="152" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="152" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="152" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="152" customWidth="1"/>
+    <col min="16" max="86" width="10.625" style="152" customWidth="1"/>
+    <col min="87" max="16384" width="10.625" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143"/>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="150" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="150" t="s">
+      <c r="K1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="151"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="153"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161" t="s">
+      <c r="G2" s="157"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="163"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="161"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="166" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="158" t="s">
+      <c r="E3" s="165"/>
+      <c r="F3" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="161" t="s">
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="163" t="s">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="161" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="163"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="161"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="178"/>
+      <c r="A5" s="168"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="176"/>
     </row>
     <row r="6" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="186"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="184"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="187">
+      <c r="A7" s="185">
         <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N7)),-(-(O7&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="188">
+      <c r="B7" s="186">
         <v>27</v>
       </c>
-      <c r="C7" s="188">
+      <c r="C7" s="186">
         <v>1</v>
       </c>
-      <c r="D7" s="189"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="191" t="str">
+      <c r="D7" s="187"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="189" t="str">
         <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
         <v/>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="297">
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="294">
         <f>IF(COUNTBLANK(H7:I7)=0,AVERAGE(H7:I7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M7" s="195">
+      <c r="M7" s="193">
         <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="195">
+      <c r="N7" s="193">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="196">
+      <c r="O7" s="194">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="197">
+      <c r="A8" s="195">
         <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N8)),-(-(O8&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="154">
+      <c r="B8" s="152">
         <v>27</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="152">
         <v>2</v>
       </c>
-      <c r="D8" s="198" t="s">
+      <c r="D8" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="199"/>
-      <c r="F8" s="200" t="s">
+      <c r="E8" s="197"/>
+      <c r="F8" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="201" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
         <v/>
       </c>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="298">
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="295">
         <f>IF(COUNTBLANK(H8:I8)=0,AVERAGE(H8:I8),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M8" s="195">
+      <c r="M8" s="193">
         <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="205">
+      <c r="N8" s="203">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="206">
+      <c r="O8" s="204">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="207">
+      <c r="A9" s="205">
         <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N9)),-(-(O9&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="154">
+      <c r="B9" s="152">
         <v>27</v>
       </c>
-      <c r="C9" s="154">
+      <c r="C9" s="152">
         <v>3</v>
       </c>
-      <c r="D9" s="208" t="s">
+      <c r="D9" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="199"/>
-      <c r="F9" s="154" t="s">
+      <c r="E9" s="197"/>
+      <c r="F9" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="201" t="str">
+      <c r="G9" s="199" t="str">
         <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
         <v/>
       </c>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="298">
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="295">
         <f>IF(COUNTBLANK(H9:K9)=0,AVERAGE(H9:K9),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M9" s="195">
+      <c r="M9" s="193">
         <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="205">
+      <c r="N9" s="203">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="211">
+      <c r="O9" s="209">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="212">
+      <c r="A10" s="210">
         <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N10)),-(-(O10&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="184">
+      <c r="B10" s="182">
         <v>27</v>
       </c>
-      <c r="C10" s="184">
+      <c r="C10" s="182">
         <v>4</v>
       </c>
-      <c r="D10" s="181"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="213" t="str">
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="211" t="str">
         <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
         <v/>
       </c>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="299">
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="296">
         <f>IF(COUNTBLANK(H10:K10)=0,AVERAGE(H10:K10),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M10" s="195">
+      <c r="M10" s="193">
         <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="217">
+      <c r="N10" s="215">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="218">
+      <c r="O10" s="216">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
@@ -4740,309 +4745,309 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="154" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="154" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="208" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="154" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="154" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="154" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="154" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.625" style="154" customWidth="1"/>
-    <col min="16" max="86" width="10.625" style="154" customWidth="1"/>
-    <col min="87" max="16384" width="10.625" style="154"/>
+    <col min="1" max="1" width="10.625" style="152" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="152" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="206" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="152" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="152" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="152" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="152" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="152" customWidth="1"/>
+    <col min="16" max="86" width="10.625" style="152" customWidth="1"/>
+    <col min="87" max="16384" width="10.625" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143"/>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="150" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="150" t="s">
+      <c r="K1" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="151"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="153"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161" t="s">
+      <c r="G2" s="157"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="163"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="161"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="166" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="158" t="s">
+      <c r="E3" s="165"/>
+      <c r="F3" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="161" t="s">
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="163" t="s">
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="161" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="163"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="161"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="178"/>
+      <c r="A5" s="168"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="176"/>
     </row>
     <row r="6" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="186"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="184"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="187">
+      <c r="A7" s="185">
         <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N7)),-(-(O7&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="188">
+      <c r="B7" s="186">
         <v>27</v>
       </c>
-      <c r="C7" s="188">
+      <c r="C7" s="186">
         <v>1</v>
       </c>
-      <c r="D7" s="189"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="191" t="str">
+      <c r="D7" s="187"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="189" t="str">
         <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
         <v/>
       </c>
-      <c r="H7" s="192"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="297">
+      <c r="H7" s="190"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="294">
         <f>IF(COUNTBLANK(H7:H7)=0,AVERAGE(H7:H7),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M7" s="195">
+      <c r="M7" s="193">
         <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="195">
+      <c r="N7" s="193">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="196">
+      <c r="O7" s="194">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="197">
+      <c r="A8" s="195">
         <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N8)),-(-(O8&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="154">
+      <c r="B8" s="152">
         <v>27</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="152">
         <v>2</v>
       </c>
-      <c r="D8" s="198" t="s">
+      <c r="D8" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="199"/>
-      <c r="F8" s="200" t="s">
+      <c r="E8" s="197"/>
+      <c r="F8" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="201" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
         <v/>
       </c>
-      <c r="H8" s="202"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="298">
+      <c r="H8" s="200"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="295">
         <f>IF(COUNTBLANK(H8:H8)=0,AVERAGE(H8:H8),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M8" s="195">
+      <c r="M8" s="193">
         <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="205">
+      <c r="N8" s="203">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="206">
+      <c r="O8" s="204">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="207">
+      <c r="A9" s="205">
         <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N9)),-(-(O9&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="154">
+      <c r="B9" s="152">
         <v>27</v>
       </c>
-      <c r="C9" s="154">
+      <c r="C9" s="152">
         <v>3</v>
       </c>
-      <c r="D9" s="208" t="s">
+      <c r="D9" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="199"/>
-      <c r="F9" s="154" t="s">
+      <c r="E9" s="197"/>
+      <c r="F9" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="201" t="str">
+      <c r="G9" s="199" t="str">
         <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
         <v/>
       </c>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="298">
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="208"/>
+      <c r="L9" s="295">
         <f>IF(COUNTBLANK(H9:K9)=0,AVERAGE(H9:K9),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M9" s="195">
+      <c r="M9" s="193">
         <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="205">
+      <c r="N9" s="203">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="211">
+      <c r="O9" s="209">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="212">
+      <c r="A10" s="210">
         <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N10)),-(-(O10&lt;$O$7:$O$129)))/4)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="184">
+      <c r="B10" s="182">
         <v>27</v>
       </c>
-      <c r="C10" s="184">
+      <c r="C10" s="182">
         <v>4</v>
       </c>
-      <c r="D10" s="181"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="213" t="str">
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="211" t="str">
         <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
         <v/>
       </c>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="299">
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="296">
         <f>IF(COUNTBLANK(H10:K10)=0,AVERAGE(H10:K10),-0.000001)</f>
         <v>-9.9999999999999995E-7</v>
       </c>
-      <c r="M10" s="195">
+      <c r="M10" s="193">
         <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="217">
+      <c r="N10" s="215">
         <f>SUM(M7:M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="218">
+      <c r="O10" s="216">
         <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
         <v>0</v>
       </c>

--- a/WindowsFormsApplication1/results.xlsx
+++ b/WindowsFormsApplication1/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnusl\source\repos\Vaulting\WindowsFormsApplication1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\voltige\repo\WindowsFormsApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F03E21-938D-4FD6-9E10-9D486CE5E61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C34136D-B5BA-4F74-A179-CBCF94FAFF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="741" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29055" yWindow="1155" windowWidth="26880" windowHeight="12585" tabRatio="741" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultTemplate" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="GKM3" sheetId="32" r:id="rId6"/>
     <sheet name="GK2" sheetId="3" r:id="rId7"/>
     <sheet name="GK1" sheetId="18" r:id="rId8"/>
+    <sheet name="TRAGK2" sheetId="54" r:id="rId9"/>
+    <sheet name="TRAK1" sheetId="55" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'GK1'!$A$7:$O$10</definedName>
@@ -31,6 +33,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'GTK3'!$A$7:$O$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'GTK4'!$A$7:$O$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ResultTemplate!$A$7:$O$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TRAGK2!$A$7:$O$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TRAK1!$A$7:$O$10</definedName>
     <definedName name="domare" localSheetId="7">'GK1'!$G$1</definedName>
     <definedName name="domare" localSheetId="6">'GK2'!$G$1</definedName>
     <definedName name="domare" localSheetId="2">'GK3'!$G$1</definedName>
@@ -39,6 +43,8 @@
     <definedName name="domare" localSheetId="4">'GTK3'!$G$1</definedName>
     <definedName name="domare" localSheetId="3">'GTK4'!$G$1</definedName>
     <definedName name="domare" localSheetId="0">ResultTemplate!$G$1</definedName>
+    <definedName name="domare" localSheetId="8">TRAGK2!$G$1</definedName>
+    <definedName name="domare" localSheetId="9">TRAK1!$G$1</definedName>
     <definedName name="ekipage" localSheetId="7">'GK1'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="6">'GK2'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="2">'GK3'!$A$7:$O$10</definedName>
@@ -47,6 +53,18 @@
     <definedName name="ekipage" localSheetId="4">'GTK3'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="3">'GTK4'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="0">ResultTemplate!$A$7:$O$10</definedName>
+    <definedName name="ekipage" localSheetId="8">TRAGK2!$A$7:$O$10</definedName>
+    <definedName name="ekipage" localSheetId="9">TRAK1!$A$7:$O$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'GK1'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'GK2'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'GK3'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">GKGK4!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'GKM3'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'GTK3'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'GTK4'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ResultTemplate!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">TRAGK2!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">TRAK1!$1:$6</definedName>
     <definedName name="results" localSheetId="7">'GK1'!$H$7:$K$10</definedName>
     <definedName name="results" localSheetId="6">'GK2'!$H$7:$K$10</definedName>
     <definedName name="results" localSheetId="2">'GK3'!$H$7:$K$10</definedName>
@@ -55,6 +73,8 @@
     <definedName name="results" localSheetId="4">'GTK3'!$H$7:$K$10</definedName>
     <definedName name="results" localSheetId="3">'GTK4'!$H$7:$K$10</definedName>
     <definedName name="results" localSheetId="0">ResultTemplate!$H$7:$K$10</definedName>
+    <definedName name="results" localSheetId="8">TRAGK2!$H$7:$K$10</definedName>
+    <definedName name="results" localSheetId="9">TRAK1!$H$7:$K$10</definedName>
     <definedName name="round1" localSheetId="7">'GK1'!$G$2</definedName>
     <definedName name="round1" localSheetId="6">'GK2'!$G$2</definedName>
     <definedName name="round1" localSheetId="2">'GK3'!$G$2</definedName>
@@ -63,6 +83,8 @@
     <definedName name="round1" localSheetId="4">'GTK3'!$G$2</definedName>
     <definedName name="round1" localSheetId="3">'GTK4'!$G$2</definedName>
     <definedName name="round1" localSheetId="0">ResultTemplate!$G$2</definedName>
+    <definedName name="round1" localSheetId="8">TRAGK2!$G$2</definedName>
+    <definedName name="round1" localSheetId="9">TRAK1!$G$2</definedName>
     <definedName name="round2" localSheetId="7">'GK1'!$G$3</definedName>
     <definedName name="round2" localSheetId="6">'GK2'!$G$3</definedName>
     <definedName name="round2" localSheetId="2">'GK3'!$G$3</definedName>
@@ -71,6 +93,8 @@
     <definedName name="round2" localSheetId="4">'GTK3'!$G$3</definedName>
     <definedName name="round2" localSheetId="3">'GTK4'!$G$3</definedName>
     <definedName name="round2" localSheetId="0">ResultTemplate!$G$3</definedName>
+    <definedName name="round2" localSheetId="8">TRAGK2!$G$3</definedName>
+    <definedName name="round2" localSheetId="9">TRAK1!$G$3</definedName>
     <definedName name="round3" localSheetId="7">'GK1'!$G$4</definedName>
     <definedName name="round3" localSheetId="6">'GK2'!$G$4</definedName>
     <definedName name="round3" localSheetId="2">'GK3'!$G$4</definedName>
@@ -79,6 +103,8 @@
     <definedName name="round3" localSheetId="4">'GTK3'!$G$4</definedName>
     <definedName name="round3" localSheetId="3">'GTK4'!$G$4</definedName>
     <definedName name="round3" localSheetId="0">ResultTemplate!$G$4</definedName>
+    <definedName name="round3" localSheetId="8">TRAGK2!$G$4</definedName>
+    <definedName name="round3" localSheetId="9">TRAK1!$G$4</definedName>
     <definedName name="round4" localSheetId="7">'GK1'!$G$5</definedName>
     <definedName name="round4" localSheetId="6">'GK2'!$G$5</definedName>
     <definedName name="round4" localSheetId="2">'GK3'!$G$5</definedName>
@@ -87,14 +113,8 @@
     <definedName name="round4" localSheetId="4">'GTK3'!$G$5</definedName>
     <definedName name="round4" localSheetId="3">'GTK4'!$G$5</definedName>
     <definedName name="round4" localSheetId="0">ResultTemplate!$G$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'GK1'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'GK2'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'GK3'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">GKGK4!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'GKM3'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'GTK3'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'GTK4'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ResultTemplate!$1:$6</definedName>
+    <definedName name="round4" localSheetId="8">TRAGK2!$G$5</definedName>
+    <definedName name="round4" localSheetId="9">TRAK1!$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="15">
   <si>
     <t>Poäng A</t>
   </si>
@@ -619,492 +639,492 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="307">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,24 +1133,24 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,16 +1159,16 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,14 +1177,14 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,321 +1193,251 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1498,7 +1448,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1554,14 +1504,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1582,14 +1525,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1604,125 +1540,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1760,7 +1577,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2370,36 +2187,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H7:K7">
-    <cfRule type="expression" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="H7:K10">
+    <cfRule type="expression" priority="1" stopIfTrue="1">
       <formula>COUNTBLANK($G7)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="47" priority="21">
+    <cfRule type="containsBlanks" dxfId="16" priority="21">
       <formula>LEN(TRIM(H7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:K8">
-    <cfRule type="expression" priority="5" stopIfTrue="1">
-      <formula>COUNTBLANK($G8)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="46" priority="22">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:K9">
-    <cfRule type="expression" priority="3" stopIfTrue="1">
-      <formula>COUNTBLANK($G9)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="45" priority="23">
-      <formula>LEN(TRIM(H9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:K10">
-    <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>COUNTBLANK($G10)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="44" priority="24">
-      <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="3">
@@ -2412,6 +2205,366 @@
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Illegal input value" error="Please enter a value between 0 and 10" sqref="L7:L10" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>-0.000001</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C&amp;14
+</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1BD8A-6CF2-4BC9-9380-E44A64348688}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="11" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="11" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="11" customWidth="1"/>
+    <col min="16" max="95" width="10.625" style="11" customWidth="1"/>
+    <col min="96" max="16384" width="10.625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="301"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="302"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N7)),-(-(O7&lt;$O$7:$O$129)))/4)</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="45">
+        <v>27</v>
+      </c>
+      <c r="C7" s="45">
+        <v>1</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="48" t="str">
+        <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
+        <v/>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="69">
+        <f>IF(AND(COUNTBLANK(G7:G7)=0,COUNTBLANK(H7:H7)=0),H7,-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K7" s="304"/>
+      <c r="L7" s="291">
+        <f>IF(COUNTBLANK(H7:J7)=0,AVERAGE(H7:J7),-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="M7" s="50">
+        <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <f>SUM(M7:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="51">
+        <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52">
+        <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N8)),-(-(O8&lt;$O$7:$O$129)))/4)</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="56" t="str">
+        <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="69">
+        <f>IF(AND(COUNTBLANK(G8:G8)=0,COUNTBLANK(H8:H8)=0),H8,-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K8" s="305"/>
+      <c r="L8" s="292">
+        <f>IF(COUNTBLANK(H8:J8)=0,AVERAGE(H8:J8),-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="M8" s="50">
+        <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="58">
+        <f>SUM(M7:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="59">
+        <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60">
+        <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N9)),-(-(O9&lt;$O$7:$O$129)))/4)</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="56" t="str">
+        <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
+        <v/>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="69">
+        <f>IF(AND(COUNTBLANK(G9:G9)=0,COUNTBLANK(H9:H9)=0),H9,-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K9" s="305"/>
+      <c r="L9" s="292">
+        <f>IF(COUNTBLANK(H9:J9)=0,AVERAGE(H9:J9),-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="M9" s="50">
+        <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="58">
+        <f>SUM(M7:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="62">
+        <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63">
+        <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N10)),-(-(O10&lt;$O$7:$O$129)))/4)</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="41">
+        <v>27</v>
+      </c>
+      <c r="C10" s="41">
+        <v>4</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="64" t="str">
+        <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="70">
+        <f>IF(AND(COUNTBLANK(G10:G10)=0,COUNTBLANK(H10:H10)=0),H10,-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K10" s="306"/>
+      <c r="L10" s="293">
+        <f>IF(COUNTBLANK(H10:J10)=0,AVERAGE(H10:J10),-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="M10" s="50">
+        <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="66">
+        <f>SUM(M7:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="67">
+        <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H7:J10">
+    <cfRule type="expression" priority="2" stopIfTrue="1">
+      <formula>COUNTBLANK($G7)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="1" priority="3">
+      <formula>LEN(TRIM(H7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTBLANK(G7:G7)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O10" xr:uid="{B32B6D34-40F7-4AA1-8026-03C91FBC40FE}">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Illegal input value" error="Please enter a value between 0 and 10" sqref="H7:N10" xr:uid="{AF00ECBE-6177-4C11-BEB1-B787748C29D2}">
       <formula1>-0.000001</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -2741,56 +2894,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H8:J8">
-    <cfRule type="expression" priority="7" stopIfTrue="1">
-      <formula>COUNTBLANK($G8)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="43" priority="10">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:J9">
-    <cfRule type="expression" priority="6" stopIfTrue="1">
-      <formula>COUNTBLANK($G9)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="42" priority="11">
-      <formula>LEN(TRIM(H9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:J10">
+  <conditionalFormatting sqref="H7:J10">
     <cfRule type="expression" priority="5" stopIfTrue="1">
-      <formula>COUNTBLANK($G10)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="41" priority="12">
-      <formula>LEN(TRIM(H10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>COUNTBLANK($G7)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="40" priority="9">
+    <cfRule type="containsBlanks" dxfId="15" priority="9">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="39" priority="4">
+  <conditionalFormatting sqref="K7:K10">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>COUNTBLANK(G7:G7)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="38" priority="3">
-      <formula>COUNTBLANK(G8:G8)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="37" priority="2">
-      <formula>COUNTBLANK(G9:G9)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="36" priority="1">
-      <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
@@ -3140,56 +3254,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H8:J8">
-    <cfRule type="expression" priority="7" stopIfTrue="1">
-      <formula>COUNTBLANK($G8)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="35" priority="10">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:J9">
-    <cfRule type="expression" priority="6" stopIfTrue="1">
-      <formula>COUNTBLANK($G9)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="34" priority="11">
-      <formula>LEN(TRIM(H9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:J10">
+  <conditionalFormatting sqref="H7:J10">
     <cfRule type="expression" priority="5" stopIfTrue="1">
-      <formula>COUNTBLANK($G10)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="33" priority="12">
-      <formula>LEN(TRIM(H10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>COUNTBLANK($G7)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="9">
+    <cfRule type="containsBlanks" dxfId="13" priority="9">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="31" priority="4">
+  <conditionalFormatting sqref="K7:K10">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>COUNTBLANK(G7:G7)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="30" priority="3">
-      <formula>COUNTBLANK(G8:G8)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="29" priority="2">
-      <formula>COUNTBLANK(G9:G9)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="28" priority="1">
-      <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3530,56 +3605,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H8:J8">
-    <cfRule type="expression" priority="7" stopIfTrue="1">
-      <formula>COUNTBLANK($G8)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="10">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:J9">
-    <cfRule type="expression" priority="6" stopIfTrue="1">
-      <formula>COUNTBLANK($G9)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="11">
-      <formula>LEN(TRIM(H9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:J10">
+  <conditionalFormatting sqref="H7:J10">
     <cfRule type="expression" priority="5" stopIfTrue="1">
-      <formula>COUNTBLANK($G10)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="25" priority="12">
-      <formula>LEN(TRIM(H10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>COUNTBLANK($G7)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="24" priority="9">
+    <cfRule type="containsBlanks" dxfId="11" priority="9">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="23" priority="4">
+  <conditionalFormatting sqref="K7:K10">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>COUNTBLANK(G7:G7)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="22" priority="3">
-      <formula>COUNTBLANK(G8:G8)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="21" priority="2">
-      <formula>COUNTBLANK(G9:G9)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="20" priority="1">
-      <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3929,56 +3965,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H8:J8">
-    <cfRule type="expression" priority="7" stopIfTrue="1">
-      <formula>COUNTBLANK($G8)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="19" priority="10">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:J9">
-    <cfRule type="expression" priority="6" stopIfTrue="1">
-      <formula>COUNTBLANK($G9)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="18" priority="11">
-      <formula>LEN(TRIM(H9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:J10">
+  <conditionalFormatting sqref="H7:J10">
     <cfRule type="expression" priority="5" stopIfTrue="1">
-      <formula>COUNTBLANK($G10)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="17" priority="12">
-      <formula>LEN(TRIM(H10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" priority="8" stopIfTrue="1">
       <formula>COUNTBLANK($G7)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="16" priority="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="9">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="15" priority="4">
+  <conditionalFormatting sqref="K7:K10">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>COUNTBLANK(G7:G7)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="14" priority="3">
-      <formula>COUNTBLANK(G8:G8)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>COUNTBLANK(G9:G9)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="12" priority="1">
-      <formula>COUNTBLANK(G10:G10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -4319,35 +4316,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H10:J10">
+  <conditionalFormatting sqref="H7:J10">
     <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>COUNTBLANK($G10)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="8">
-      <formula>LEN(TRIM(H10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:J9">
-    <cfRule type="expression" priority="2" stopIfTrue="1">
-      <formula>COUNTBLANK($G9)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="10" priority="7">
-      <formula>LEN(TRIM(H9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:J8">
-    <cfRule type="expression" priority="3" stopIfTrue="1">
-      <formula>COUNTBLANK($G8)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="6">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:J7">
-    <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>COUNTBLANK($G7)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4686,35 +4659,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H10:I10">
+  <conditionalFormatting sqref="H7:I10">
     <cfRule type="expression" priority="2" stopIfTrue="1">
-      <formula>COUNTBLANK($G10)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
-      <formula>LEN(TRIM(H10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:I9">
-    <cfRule type="expression" priority="3" stopIfTrue="1">
-      <formula>COUNTBLANK($G9)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
-      <formula>LEN(TRIM(H9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
-    <cfRule type="expression" priority="4" stopIfTrue="1">
-      <formula>COUNTBLANK($G8)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
-    <cfRule type="expression" priority="5" stopIfTrue="1">
       <formula>COUNTBLANK($G7)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4744,7 +4693,7 @@
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -5053,35 +5002,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H7:H10">
     <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>COUNTBLANK($G10)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="8">
-      <formula>LEN(TRIM(H10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" priority="2" stopIfTrue="1">
-      <formula>COUNTBLANK($G9)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="7">
-      <formula>LEN(TRIM(H9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" priority="3" stopIfTrue="1">
-      <formula>COUNTBLANK($G8)=1</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="1" priority="6">
-      <formula>LEN(TRIM(H8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" priority="4" stopIfTrue="1">
       <formula>COUNTBLANK($G7)=1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="5">
+    <cfRule type="containsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5102,4 +5027,369 @@
 </oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A4535A-0E69-49E3-B7A0-6182454C3328}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="11" customWidth="1"/>
+    <col min="7" max="12" width="10.625" style="11" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="11" customWidth="1"/>
+    <col min="16" max="95" width="10.625" style="11" customWidth="1"/>
+    <col min="96" max="16384" width="10.625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="301"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="302"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+    </row>
+    <row r="6" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <f>_xlfn.FLOOR.MATH(RANK(N7,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N7)),-(-(O7&lt;$O$7:$O$129)))/4)</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="45">
+        <v>27</v>
+      </c>
+      <c r="C7" s="45">
+        <v>1</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="48" t="str">
+        <f>IF($G$2&lt;&gt;"",$G$2,"")</f>
+        <v/>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="303">
+        <f>IF(AND(COUNTBLANK(G7:G7)=0,COUNTBLANK(H7:I7)=0),AVERAGE(H7:I7),-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K7" s="304"/>
+      <c r="L7" s="291">
+        <f>IF(COUNTBLANK(H7:J7)=0,AVERAGE(H7:J7),-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="M7" s="50">
+        <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <f>SUM(M7:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="51">
+        <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52">
+        <f>_xlfn.FLOOR.MATH(RANK(N8,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N8)),-(-(O8&lt;$O$7:$O$129)))/4)</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="56" t="str">
+        <f>IF($G$3&lt;&gt;"",$G$3,"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="69">
+        <f>IF(AND(COUNTBLANK(G8:G8)=0,COUNTBLANK(H8:H8)=0),H8,-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K8" s="305"/>
+      <c r="L8" s="292">
+        <f>IF(COUNTBLANK(H8:J8)=0,AVERAGE(H8:J8),-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="M8" s="50">
+        <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="58">
+        <f>SUM(M7:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="59">
+        <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60">
+        <f>_xlfn.FLOOR.MATH(RANK(N9,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N9)),-(-(O9&lt;$O$7:$O$129)))/4)</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="56" t="str">
+        <f>IF($G$4&lt;&gt;"",$G$4,"")</f>
+        <v/>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="69">
+        <f>IF(AND(COUNTBLANK(G9:G9)=0,COUNTBLANK(H9:H9)=0),H9,-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K9" s="305"/>
+      <c r="L9" s="292">
+        <f>IF(COUNTBLANK(H9:J9)=0,AVERAGE(H9:J9),-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="M9" s="50">
+        <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="58">
+        <f>SUM(M7:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="62">
+        <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63">
+        <f>_xlfn.FLOOR.MATH(RANK(N10,$N$7:$N$129)/4+1+SUMPRODUCT(-(-($N$7:$N$129=N10)),-(-(O10&lt;$O$7:$O$129)))/4)</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="41">
+        <v>27</v>
+      </c>
+      <c r="C10" s="41">
+        <v>4</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="64" t="str">
+        <f>IF($G$5&lt;&gt;"",$G$5,"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="70">
+        <f>IF(AND(COUNTBLANK(G10:G10)=0,COUNTBLANK(H10:H10)=0),H10,-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K10" s="306"/>
+      <c r="L10" s="293">
+        <f>IF(COUNTBLANK(H10:J10)=0,AVERAGE(H10:J10),-0.000001)</f>
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="M10" s="50">
+        <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="66">
+        <f>SUM(M7:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="67">
+        <f>IF(COUNTIF(L7:L10,"&gt;=0"),ROUND(AVERAGEIF(L7:L10,"&gt;=0"),3),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H7:J10">
+    <cfRule type="expression" priority="3" stopIfTrue="1">
+      <formula>COUNTBLANK($G7)=1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(H7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>COUNTBLANK(G7:G7)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J10">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>COUNTBLANK(G8:G8)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Illegal input value" error="Please enter a value between 0 and 10" sqref="H7:N10" xr:uid="{3636A4D9-4F92-4731-B4E2-C30C9EFC27F8}">
+      <formula1>-0.000001</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O10" xr:uid="{C549FD8C-4959-45C0-9E8B-324D5A73CDF3}">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C&amp;14
+</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>
--- a/WindowsFormsApplication1/results.xlsx
+++ b/WindowsFormsApplication1/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\privat\voltige\OxygeneIV\Vaulting\WindowsFormsApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5FCC8E-EAF5-4B24-900A-36EF1969EAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF2786-AA56-4B0E-9BC1-F2D638FE6758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-435" yWindow="195" windowWidth="29280" windowHeight="14385" tabRatio="741" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2279,8 @@
     <col min="5" max="5" width="6.75" style="11" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="11" customWidth="1"/>
     <col min="7" max="12" width="10.625" style="11" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="2" style="11" customWidth="1"/>
+    <col min="14" max="14" width="2.375" style="11" customWidth="1"/>
     <col min="15" max="15" width="34.625" style="11" customWidth="1"/>
     <col min="16" max="109" width="10.625" style="11" customWidth="1"/>
     <col min="110" max="16384" width="10.625" style="11"/>
@@ -2441,7 +2442,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M7" s="50">
-        <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
+        <f>IF(COUNTBLANK(H7:J7)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="N7" s="50">
@@ -2499,7 +2500,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M8" s="50">
-        <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
+        <f t="shared" ref="M8:M10" si="0">IF(COUNTBLANK(H8:J8)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="N8" s="58">
@@ -2545,7 +2546,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M9" s="50">
-        <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="58">
@@ -2587,7 +2588,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M10" s="50">
-        <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="66">
@@ -2624,7 +2625,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;14
 </oddHeader>
@@ -4405,7 +4406,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4577,7 +4578,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M7" s="192">
-        <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
+        <f>IF(COUNTBLANK(H7:I7)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="N7" s="192">
@@ -4632,7 +4633,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M8" s="192">
-        <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
+        <f t="shared" ref="M8:M10" si="0">IF(COUNTBLANK(H8:I8)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="N8" s="202">
@@ -4675,7 +4676,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M9" s="192">
-        <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="202">
@@ -4714,7 +4715,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M10" s="192">
-        <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="214">
@@ -5105,7 +5106,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5116,7 +5117,7 @@
     <col min="5" max="5" width="6.75" style="11" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="11" customWidth="1"/>
     <col min="7" max="12" width="10.625" style="11" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="11" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="2.5" style="11" customWidth="1"/>
     <col min="15" max="15" width="34.625" style="11" customWidth="1"/>
     <col min="16" max="109" width="10.625" style="11" customWidth="1"/>
     <col min="110" max="16384" width="10.625" style="11"/>
@@ -5278,7 +5279,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M7" s="50">
-        <f>IF(COUNTBLANK(H7:K7)=0,1,0)</f>
+        <f>IF(COUNTBLANK(H7:J7)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="N7" s="50">
@@ -5336,7 +5337,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M8" s="50">
-        <f>IF(COUNTBLANK(H8:K8)=0,1,0)</f>
+        <f t="shared" ref="M8:M10" si="0">IF(COUNTBLANK(H8:J8)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="N8" s="58">
@@ -5382,7 +5383,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M9" s="50">
-        <f>IF(COUNTBLANK(H9:K9)=0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="58">
@@ -5424,7 +5425,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
       <c r="M10" s="50">
-        <f>IF(COUNTBLANK(H10:K10)=0,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="66">
@@ -5466,7 +5467,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;14
 </oddHeader>

--- a/WindowsFormsApplication1/results.xlsx
+++ b/WindowsFormsApplication1/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\privat\voltige\OxygeneIV\Vaulting\WindowsFormsApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF2786-AA56-4B0E-9BC1-F2D638FE6758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ADB019-6E6C-475B-AC6B-70EE8C244F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-435" yWindow="195" windowWidth="29280" windowHeight="14385" tabRatio="741" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28005" yWindow="375" windowWidth="26085" windowHeight="13305" tabRatio="741" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultTemplate" sheetId="1" r:id="rId1"/>
@@ -46,15 +46,15 @@
     <definedName name="domare" localSheetId="8">TRAGK2!$G$1</definedName>
     <definedName name="domare" localSheetId="9">TRAK1!$G$1</definedName>
     <definedName name="ekipage" localSheetId="7">'GK1'!$A$7:$O$10</definedName>
-    <definedName name="ekipage" localSheetId="6">'GK2'!$A$7:$O$10</definedName>
+    <definedName name="ekipage" localSheetId="6">'GK2'!$A$7:$R$10</definedName>
     <definedName name="ekipage" localSheetId="2">'GK3'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="1">GKGK4!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="5">'GKM3'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="4">'GTK3'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="3">'GTK4'!$A$7:$O$10</definedName>
     <definedName name="ekipage" localSheetId="0">ResultTemplate!$A$7:$R$10</definedName>
-    <definedName name="ekipage" localSheetId="8">TRAGK2!$A$7:$O$10</definedName>
-    <definedName name="ekipage" localSheetId="9">TRAK1!$A$7:$O$10</definedName>
+    <definedName name="ekipage" localSheetId="8">TRAGK2!$A$7:$R$10</definedName>
+    <definedName name="ekipage" localSheetId="9">TRAK1!$A$7:$R$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'GK1'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'GK2'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'GK3'!$1:$6</definedName>
@@ -1908,7 +1908,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A7:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4406,7 +4406,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A7" sqref="A7:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4534,7 +4534,7 @@
       <c r="N5" s="174"/>
       <c r="O5" s="175"/>
     </row>
-    <row r="6" spans="1:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="176"/>
       <c r="B6" s="177"/>
       <c r="C6" s="177"/>
@@ -4551,7 +4551,7 @@
       <c r="N6" s="182"/>
       <c r="O6" s="183"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="184">
         <f>ROUND(RANK(R7,$R$7:$R$234,0),0)</f>
         <v>1</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="307">
         <f>A7</f>
         <v>1</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="204">
         <f>A7</f>
         <v>1</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="209">
         <f>A7</f>
         <v>1</v>
@@ -5106,7 +5106,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A7" sqref="A7:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/WindowsFormsApplication1/results.xlsx
+++ b/WindowsFormsApplication1/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\privat\voltige\OxygeneIV\Vaulting\WindowsFormsApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ADB019-6E6C-475B-AC6B-70EE8C244F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD7484-F3C2-41FB-BCD1-CFD274708E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28005" yWindow="375" windowWidth="26085" windowHeight="13305" tabRatio="741" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4406,7 +4406,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:R10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5106,7 +5106,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:R10"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
